--- a/pred_ohlcv/54_21/2019-10-10 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 ZRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>39386.322</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>39506.322</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>39506.322</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>39506.322</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>47534.0133</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-148867.2399</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-149367.2399</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-147690.5807</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-147746.0439</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-155478.9829</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-189500.1239</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-183084.2786</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2323808.742933637</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2323808.742933637</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2325774.577058802</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2326026.577058802</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2325704.541358802</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2325704.541358802</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2321967.135558803</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2322015.848958802</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2321985.848958802</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2321985.848958802</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2322253.948258802</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2322130.826658802</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2317816.545058802</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2317889.167458802</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2317837.988258802</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-2293970.841658802</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-2277503.529758802</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-2267341.606058802</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-2278850.503158803</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-2278850.503158803</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2278435.091458803</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2276725.124158802</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2276725.124158802</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2276725.124158802</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2275022.618858803</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2275022.618858803</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2275022.618858803</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-2207185.644458802</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-2207432.705658802</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-2207432.705658802</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-2203433.877858802</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-2203433.877858802</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-2205592.686058802</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2224218.687058802</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2225158.447058802</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-2225209.807058802</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-2225118.173958802</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-2224273.657158802</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2221878.691558802</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2220859.355458802</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2220875.802758802</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2220921.802758802</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2221018.242858802</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2229640.737458802</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2233866.218158802</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-2230667.100558802</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-2264708.756558802</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2264168.756558802</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-2263628.427558802</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-10 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 ZRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>39386.322</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>39506.322</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>39506.322</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>39506.322</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>47534.0133</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-148867.2399</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-149367.2399</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-147690.5807</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-147746.0439</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-155478.9829</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-189500.1239</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-183084.2786</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2341590.314109081</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2340076.314109081</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-2340076.314109081</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-2340076.314109081</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2340070.914109081</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2340070.914109081</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2332468.671291572</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-2332468.671291572</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2331220.715591572</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-2331220.715591572</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-2344999.391891572</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2344099.537991572</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-2342069.313923356</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2354228.573238587</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-2354228.573238587</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2354228.573238587</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2354888.608438587</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2342160.306838587</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2342160.306838587</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2347308.902438587</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2347119.919638587</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2347119.919638587</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2347119.919638587</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2342798.111738587</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2342632.896433637</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2342632.896433637</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2344263.084133637</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2344243.084133637</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2344243.084133637</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2344243.084133637</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2323808.742933637</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2323808.742933637</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2325774.577058802</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2326026.577058802</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2325704.541358802</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2325704.541358802</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2321967.135558803</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2322015.848958802</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2321985.848958802</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2321985.848958802</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2322253.948258802</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2322130.826658802</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2317816.545058802</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2317889.167458802</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2317889.167458802</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2317837.988258802</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2318540.253458802</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2318540.253458802</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-2317101.995058802</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2317101.995058802</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-2293970.841658802</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-2277503.529758802</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-2267341.606058802</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-2278850.503158803</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-2278850.503158803</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2278435.091458803</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2276725.124158802</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2276725.124158802</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2276725.124158802</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2275022.618858803</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2275022.618858803</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2275022.618858803</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-2246666.973758803</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-2246666.973758803</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-2249034.832458802</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-2249034.832458802</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2228572.063558802</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-2228994.583958802</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-2215047.316958802</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-2207185.644458802</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-2207432.705658802</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-2207432.705658802</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-2203433.877858802</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-2203433.877858802</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-2205592.686058802</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2224218.687058802</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2225158.447058802</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-2225209.807058802</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-2225118.173958802</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-2224273.657158802</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2221878.691558802</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2220859.355458802</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2220875.802758802</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2220921.802758802</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2221018.242858802</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-2230971.058258802</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2229640.737458802</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2233866.218158802</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-2230667.100558802</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-2264708.756558802</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2264168.756558802</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-2263628.427558802</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
